--- a/docs/Descriptions JDR.xlsx
+++ b/docs/Descriptions JDR.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-06\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-11\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B185D2-DE76-4EFF-9856-8E33C7D27B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75926A5-0FBB-41C1-9349-067B5A980394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Races</t>
   </si>
@@ -39,9 +47,6 @@
     <t>Types</t>
   </si>
   <si>
-    <t>Aptitudes</t>
-  </si>
-  <si>
     <t>Jouables</t>
   </si>
   <si>
@@ -133,6 +138,30 @@
   </si>
   <si>
     <t>Strike</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>id aptitude</t>
+  </si>
+  <si>
+    <t>nom Aptitudes</t>
+  </si>
+  <si>
+    <t>effet</t>
+  </si>
+  <si>
+    <t>prérequis</t>
+  </si>
+  <si>
+    <t>id_type_aptitude</t>
   </si>
 </sst>
 </file>
@@ -172,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -195,15 +224,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +282,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,180 +581,430 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="56.28515625" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="35.42578125" customWidth="1"/>
+    <col min="13" max="13" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"("&amp;"'"&amp;F2&amp;"'"&amp;")"&amp;","</f>
+        <v>('Movements'),</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
+        <f>E2</f>
+        <v>1</v>
+      </c>
+      <c r="M2" t="str">
+        <f>"("&amp;H2&amp;","&amp;"'"&amp;I2&amp;"'"&amp;",'"&amp;J2&amp;"'"&amp;",'"&amp;K2&amp;"',"&amp;E2&amp;")"&amp;","</f>
+        <v>(1,'Speed','','',1),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M11" si="0">"("&amp;H3&amp;","&amp;"'"&amp;I3&amp;"'"&amp;",'"&amp;J3&amp;"'"&amp;",'"&amp;K3&amp;"',"&amp;E3&amp;")"&amp;","</f>
+        <v>(2,'Furtivity','','',1),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G11" si="1">"("&amp;"'"&amp;F4&amp;"'"&amp;")"&amp;","</f>
+        <v>('Shopping'),</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'Buy','','',2),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'Sell','','',2),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'Share ','','',2),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>('Skills'),</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'Healling','','',3),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'Magic','','',3),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>('Items'),</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'Use','','',4),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="E10" s="12">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="H10" s="4">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'Share items','','',4),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>('Strike'),</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'','','',5),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT(G2:G11)</f>
+        <v>('Movements'),('Shopping'),('Skills'),('Items'),('Strike'),</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT(M2:M11)</f>
+        <v>(1,'Speed','','',1),(2,'Furtivity','','',1),(3,'Buy','','',2),(4,'Sell','','',2),(5,'Share ','','',2),(6,'Healling','','',3),(7,'Magic','','',3),(8,'Use','','',4),(9,'Share items','','',4),(10,'','','',5),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7" t="s">
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+      <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
